--- a/import/import_gear.xlsx
+++ b/import/import_gear.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project_3\16-07-2024\project\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC46803F-6753-4C51-AD71-CEFCD3A27A18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754579EC-6536-4746-A5D6-F8BCDC53F4F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{D8515151-6164-46AA-87F0-3D4D4A61D199}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="19">
   <si>
     <t>BODY</t>
   </si>
@@ -72,13 +72,16 @@
     <t>C 0424079</t>
   </si>
   <si>
-    <t>"2E24"</t>
-  </si>
-  <si>
     <t>12T NB</t>
   </si>
   <si>
     <t>12T WB</t>
+  </si>
+  <si>
+    <t>2E24</t>
+  </si>
+  <si>
+    <t>2F24</t>
   </si>
 </sst>
 </file>
@@ -141,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -155,13 +158,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -478,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB59ED08-7205-4B0F-8A26-8A56E0B90DBA}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,16 +499,16 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1"/>
@@ -526,36 +526,36 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>2406169</v>
+        <v>24061691</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -566,16 +566,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -585,37 +585,37 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>2406161</v>
+        <v>24061612</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -625,17 +625,17 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -645,17 +645,17 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -665,17 +665,17 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -685,17 +685,17 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -705,18 +705,805 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2406146</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>24061463</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2406147</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2406148</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2406149</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2406150</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2406151</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2406152</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2406153</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2406154</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2406155</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2406156</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2406157</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2406158</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2406159</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2406160</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2406161</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2406162</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2406163</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2406164</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2406165</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2406166</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2406167</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2406168</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2406169</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2406170</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2406171</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2406172</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2406173</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2406174</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2406175</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2406176</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2406177</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2406178</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2406179</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2406180</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2406181</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2406182</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2406183</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="1"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/import/import_gear.xlsx
+++ b/import/import_gear.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project_3\16-07-2024\project\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\05-09-2024\Avani-Industry-Kolhapur\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285D1107-199F-46EC-8EC0-5E69BBC9E815}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7CCB77-EB8B-4EA0-BE70-4B5EA5F36646}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{D8515151-6164-46AA-87F0-3D4D4A61D199}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
   <si>
     <t>BODY</t>
   </si>
@@ -475,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB59ED08-7205-4B0F-8A26-8A56E0B90DBA}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,6 +695,66 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>2406038</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>2406039</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>2406040</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/import/import_gear.xlsx
+++ b/import/import_gear.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\05-09-2024\Avani-Industry-Kolhapur\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7CCB77-EB8B-4EA0-BE70-4B5EA5F36646}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB5234E-E578-4E1A-8917-75B7D8E77A8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{D8515151-6164-46AA-87F0-3D4D4A61D199}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>BODY</t>
   </si>
@@ -45,40 +45,10 @@
     <t>12T WB</t>
   </si>
   <si>
-    <t>C0624126</t>
-  </si>
-  <si>
-    <t>2F24</t>
-  </si>
-  <si>
     <t>2D24</t>
   </si>
   <si>
     <t>2E24</t>
-  </si>
-  <si>
-    <t>C0624055</t>
-  </si>
-  <si>
-    <t>C0624076</t>
-  </si>
-  <si>
-    <t>C0624001</t>
-  </si>
-  <si>
-    <t>C0624030</t>
-  </si>
-  <si>
-    <t>C0624009</t>
-  </si>
-  <si>
-    <t>C0624077</t>
-  </si>
-  <si>
-    <t>C 0524082</t>
-  </si>
-  <si>
-    <t>C 0624129</t>
   </si>
 </sst>
 </file>
@@ -114,7 +84,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,6 +107,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -155,11 +136,11 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB59ED08-7205-4B0F-8A26-8A56E0B90DBA}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,243 +497,83 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>2406127</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="6">
+        <v>2407395</v>
+      </c>
+      <c r="B2">
+        <v>2408054</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>24061691</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
+      <c r="A3" s="6">
+        <v>2407396</v>
+      </c>
+      <c r="B3">
+        <v>2408054</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>2406042</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>9</v>
+      <c r="A4" s="6">
+        <v>2407397</v>
+      </c>
+      <c r="B4">
+        <v>2408054</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <v>2406015</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>24061612</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>2406065</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>2406089</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>2406073</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>2406036</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>2406038</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>2406039</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <v>2406040</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>9</v>
+      <c r="A5" s="6">
+        <v>2407398</v>
+      </c>
+      <c r="B5">
+        <v>2408054</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/import/import_gear.xlsx
+++ b/import/import_gear.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\05-09-2024\Avani-Industry-Kolhapur\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB5234E-E578-4E1A-8917-75B7D8E77A8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB2DE26-87EC-4D64-A9BD-E8974DCB4B51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{D8515151-6164-46AA-87F0-3D4D4A61D199}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
   <si>
     <t>BODY</t>
   </si>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB59ED08-7205-4B0F-8A26-8A56E0B90DBA}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +558,7 @@
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
-        <v>2407398</v>
+        <v>2407391</v>
       </c>
       <c r="B5">
         <v>2408054</v>
@@ -573,6 +573,26 @@
         <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>24073100</v>
+      </c>
+      <c r="B6">
+        <v>2408054</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
